--- a/Excel-files/soy-crush-exercise-key.xlsx
+++ b/Excel-files/soy-crush-exercise-key.xlsx
@@ -933,7 +933,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A13"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
